--- a/resources/RemoteTestData.xlsx
+++ b/resources/RemoteTestData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -10,12 +10,12 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="temp" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="174">
   <si>
     <t>internet explorer</t>
   </si>
@@ -269,9 +269,6 @@
     <t>WIN8</t>
   </si>
   <si>
-    <t>MAC</t>
-  </si>
-  <si>
     <t>FirstName1</t>
   </si>
   <si>
@@ -375,13 +372,178 @@
   </si>
   <si>
     <t>31.057</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>51.058</t>
+  </si>
+  <si>
+    <t>51.059</t>
+  </si>
+  <si>
+    <t>51.060</t>
+  </si>
+  <si>
+    <t>51.061</t>
+  </si>
+  <si>
+    <t>51.062</t>
+  </si>
+  <si>
+    <t>31.058</t>
+  </si>
+  <si>
+    <t>31.059</t>
+  </si>
+  <si>
+    <t>31.060</t>
+  </si>
+  <si>
+    <t>31.061</t>
+  </si>
+  <si>
+    <t>31.062</t>
+  </si>
+  <si>
+    <t>problemTitle10</t>
+  </si>
+  <si>
+    <t>problemTitle11</t>
+  </si>
+  <si>
+    <t>problemTitle12</t>
+  </si>
+  <si>
+    <t>problemTitle13</t>
+  </si>
+  <si>
+    <t>problemTitle14</t>
+  </si>
+  <si>
+    <t>problemDescription10</t>
+  </si>
+  <si>
+    <t>problemDescription11</t>
+  </si>
+  <si>
+    <t>problemDescription12</t>
+  </si>
+  <si>
+    <t>problemDescription13</t>
+  </si>
+  <si>
+    <t>problemDescription14</t>
+  </si>
+  <si>
+    <t>problemSolution10</t>
+  </si>
+  <si>
+    <t>problemSolution11</t>
+  </si>
+  <si>
+    <t>problemSolution12</t>
+  </si>
+  <si>
+    <t>problemSolution13</t>
+  </si>
+  <si>
+    <t>problemSolution14</t>
+  </si>
+  <si>
+    <t>FirstName8</t>
+  </si>
+  <si>
+    <t>FirstName9</t>
+  </si>
+  <si>
+    <t>FirstName10</t>
+  </si>
+  <si>
+    <t>FirstName11</t>
+  </si>
+  <si>
+    <t>FirstName12</t>
+  </si>
+  <si>
+    <t>LastName8</t>
+  </si>
+  <si>
+    <t>LastName9</t>
+  </si>
+  <si>
+    <t>LastName10</t>
+  </si>
+  <si>
+    <t>LastName11</t>
+  </si>
+  <si>
+    <t>LastName12</t>
+  </si>
+  <si>
+    <t>tests208@test.com</t>
+  </si>
+  <si>
+    <t>tests209@test.com</t>
+  </si>
+  <si>
+    <t>tests210@test.com</t>
+  </si>
+  <si>
+    <t>tests211@test.com</t>
+  </si>
+  <si>
+    <t>tests212@test.com</t>
+  </si>
+  <si>
+    <t>Comment10</t>
+  </si>
+  <si>
+    <t>Comment11</t>
+  </si>
+  <si>
+    <t>Comment12</t>
+  </si>
+  <si>
+    <t>Comment13</t>
+  </si>
+  <si>
+    <t>Comment14</t>
+  </si>
+  <si>
+    <t>WINXP</t>
+  </si>
+  <si>
+    <t>WIN7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -410,7 +572,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -418,23 +580,15 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -513,7 +667,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -548,7 +701,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -724,18 +876,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:V13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" style="1" bestFit="1" customWidth="1"/>
@@ -745,73 +900,73 @@
     <col min="14" max="14" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24" style="1" customWidth="1"/>
     <col min="18" max="18" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="17" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:22">
+      <c r="A1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:22">
+      <c r="A2" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -821,13 +976,13 @@
         <v>73</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>83</v>
+        <v>173</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>14</v>
@@ -850,13 +1005,13 @@
         <v>43</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>99</v>
+      <c r="Q2" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>44</v>
@@ -867,29 +1022,29 @@
       <c r="U2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="V2" s="4" t="str">
+      <c r="V2" s="3" t="str">
         <f>"tests20" &amp; U2&amp; "@test.com"</f>
         <v>tests201@test.com</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:22">
+      <c r="A3" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>20</v>
@@ -911,14 +1066,14 @@
       <c r="N3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="P3" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>100</v>
+      <c r="Q3" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>44</v>
@@ -929,29 +1084,29 @@
       <c r="U3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="V3" s="4" t="str">
+      <c r="V3" s="3" t="str">
         <f t="shared" ref="V3:V8" si="0">"tests20" &amp; U3&amp; "@test.com"</f>
         <v>tests202@test.com</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:22">
+      <c r="A4" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>21</v>
@@ -973,14 +1128,14 @@
       <c r="N4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="P4" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>101</v>
+      <c r="Q4" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>44</v>
@@ -991,276 +1146,572 @@
       <c r="U4" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="V4" s="4" t="str">
+      <c r="V4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>tests203@test.com</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:22">
+      <c r="A5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="O5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="P5" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="P5" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="R5" s="3" t="s">
+      <c r="Q5" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="R5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="S5" s="1" t="s">
         <v>49</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="V5" s="4" t="str">
+      <c r="V5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>tests204@test.com</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:22">
+      <c r="A6" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="C6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="N6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="O6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P6" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="P6" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="R6" s="3" t="s">
+      <c r="Q6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="R6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="S6" s="3" t="s">
+      <c r="S6" s="1" t="s">
         <v>51</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="V6" s="4" t="str">
+      <c r="V6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>tests205@test.com</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:22">
+      <c r="A7" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="3" t="s">
+      <c r="M7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="N7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="O7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="P7" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="P7" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="R7" s="3" t="s">
+      <c r="Q7" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="R7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="S7" s="3" t="s">
+      <c r="S7" s="1" t="s">
         <v>53</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="V7" s="4" t="str">
+      <c r="V7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>tests206@test.com</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:22">
+      <c r="A8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="C8" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="3" t="s">
+      <c r="M8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="N8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="O8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="P8" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="R8" s="3" t="s">
+      <c r="Q8" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="R8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="S8" s="3" t="s">
+      <c r="S8" s="1" t="s">
         <v>55</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="V8" s="4" t="str">
+      <c r="V8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>tests207@test.com</v>
       </c>
     </row>
+    <row r="9" spans="1:22">
+      <c r="A9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>162</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="V9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>163</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="V10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>164</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>165</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>166</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="V13" t="s">
+        <v>166</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:R4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="60">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1306,7 +1757,7 @@
       <c r="O1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="1" t="s">
         <v>56</v>
       </c>
       <c r="Q1" s="1" t="s">
@@ -1316,7 +1767,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -1358,7 +1809,7 @@
       <c r="O2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="1" t="s">
         <v>57</v>
       </c>
       <c r="Q2" s="1" t="s">
@@ -1368,7 +1819,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" s="1" customFormat="1" ht="60">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1414,7 +1865,7 @@
       <c r="O3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="1" t="s">
         <v>58</v>
       </c>
       <c r="Q3" s="1" t="s">
@@ -1424,7 +1875,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1466,7 +1917,7 @@
       <c r="O4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="1" t="s">
         <v>59</v>
       </c>
       <c r="Q4" s="1" t="s">
@@ -1477,6 +1928,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="J1" r:id="rId1"/>
     <hyperlink ref="J3" r:id="rId2"/>
